--- a/Other Files/Password Cracking Stats.xlsx
+++ b/Other Files/Password Cracking Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="8595" windowHeight="3660"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="7110" windowHeight="3660"/>
   </bookViews>
   <sheets>
     <sheet name="Stat Trial 1" sheetId="1" r:id="rId1"/>
@@ -574,19 +574,19 @@
                   <c:v>27.257374316666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>42.735919266666663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>51.052184349999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>21.257617200000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>14.108057550000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>28.249680066666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2403,19 +2403,19 @@
                   <c:v>27.257374316666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>42.735919266666663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>51.052184349999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>21.257617200000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>14.108057550000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>28.249680066666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2528,7 +2528,7 @@
                   <c:v>509.92592535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>60.616594233333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2779,19 +2779,19 @@
                   <c:v>27.945634183333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76776656666666665</c:v>
+                  <c:v>43.503685833333329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87657083333333341</c:v>
+                  <c:v>51.92875518333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94242170000000003</c:v>
+                  <c:v>22.200038900000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0064825500000001</c:v>
+                  <c:v>15.114540100000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39157440000000004</c:v>
+                  <c:v>28.641254466666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.40366503333333331</c:v>
@@ -3328,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,6 +3683,21 @@
       <c r="J9" s="2">
         <v>442459</v>
       </c>
+      <c r="K9" s="2">
+        <v>155156</v>
+      </c>
+      <c r="L9" s="2">
+        <v>131061</v>
+      </c>
+      <c r="M9" s="2">
+        <v>457032</v>
+      </c>
+      <c r="N9" s="2">
+        <v>483453</v>
+      </c>
+      <c r="O9" s="2">
+        <v>980804</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -3693,6 +3708,9 @@
       </c>
       <c r="C10" s="2">
         <v>555521</v>
+      </c>
+      <c r="D10" s="2">
+        <v>995654</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -4023,6 +4041,21 @@
       <c r="J19" s="2">
         <v>1635</v>
       </c>
+      <c r="K19" s="2">
+        <v>2564</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3063</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1275</v>
+      </c>
+      <c r="N19" s="2">
+        <v>846</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1694</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -4033,6 +4066,9 @@
       </c>
       <c r="C20" s="2">
         <v>30595</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3636</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -4434,23 +4470,23 @@
       </c>
       <c r="K29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>42.735919266666663</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>51.052184349999997</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21.257617200000002</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.108057550000002</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.249680066666667</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="3"/>
@@ -4491,7 +4527,7 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60.616594233333331</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="4"/>
@@ -4771,23 +4807,23 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="7"/>
-        <v>0.76776656666666665</v>
+        <v>43.503685833333329</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="7"/>
-        <v>0.87657083333333341</v>
+        <v>51.92875518333333</v>
       </c>
       <c r="M33" s="4">
         <f t="shared" si="7"/>
-        <v>0.94242170000000003</v>
+        <v>22.200038900000003</v>
       </c>
       <c r="N33" s="4">
         <f t="shared" si="7"/>
-        <v>1.0064825500000001</v>
+        <v>15.114540100000001</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="7"/>
-        <v>0.39157440000000004</v>
+        <v>28.641254466666666</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="7"/>
@@ -5203,23 +5239,23 @@
       </c>
       <c r="K39" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.71226532111111107</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.85086973916666664</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.35429362000000003</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.23513429250000004</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.47082800111111112</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="11"/>
@@ -5260,7 +5296,7 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.0102765705555554</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="12"/>

--- a/Other Files/Password Cracking Stats.xlsx
+++ b/Other Files/Password Cracking Stats.xlsx
@@ -589,10 +589,10 @@
                   <c:v>28.249680066666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>28.410347183333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>28.12123561666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -2418,10 +2418,10 @@
                   <c:v>28.249680066666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>28.410347183333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>28.12123561666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -2794,10 +2794,10 @@
                   <c:v>28.641254466666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40366503333333331</c:v>
+                  <c:v>28.814012216666665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52217463333333336</c:v>
+                  <c:v>28.643410250000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.45557838333333334</c:v>
@@ -3329,7 +3329,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,6 +3698,12 @@
       <c r="O9" s="2">
         <v>980804</v>
       </c>
+      <c r="P9" s="2">
+        <v>620831</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>274137</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -4056,6 +4062,12 @@
       <c r="O19" s="2">
         <v>1694</v>
       </c>
+      <c r="P19" s="2">
+        <v>1704</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1687</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -4490,11 +4502,11 @@
       </c>
       <c r="P29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.410347183333332</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.12123561666667</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="3"/>
@@ -4827,11 +4839,11 @@
       </c>
       <c r="P33" s="4">
         <f t="shared" si="7"/>
-        <v>0.40366503333333331</v>
+        <v>28.814012216666665</v>
       </c>
       <c r="Q33" s="4">
         <f t="shared" si="7"/>
-        <v>0.52217463333333336</v>
+        <v>28.643410250000002</v>
       </c>
       <c r="R33" s="4">
         <f t="shared" si="7"/>
@@ -5259,11 +5271,11 @@
       </c>
       <c r="P39" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.47350578638888885</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.46868726027777785</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="11"/>

--- a/Other Files/Password Cracking Stats.xlsx
+++ b/Other Files/Password Cracking Stats.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="7110" windowHeight="3660"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="7110" windowHeight="3660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stat Trial 1" sheetId="1" r:id="rId1"/>
     <sheet name="Stat Trial 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Stat Trial new" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
     <t># Workers</t>
   </si>
@@ -55,6 +56,9 @@
   </si>
   <si>
     <t>Homework 2: Statistics Trial 1</t>
+  </si>
+  <si>
+    <t>Homework 2: Statistics Trial NEW</t>
   </si>
 </sst>
 </file>
@@ -595,10 +599,10 @@
                   <c:v>28.12123561666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>30.450435933333331</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>39.8790537</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -840,6 +844,236 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="31033216"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total Time</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$33:$U$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.34776570000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.43188E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6897333333333338E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1583166666666663E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0518350000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2766333333333343E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.03372E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.432533333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9124166666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.340275E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.41148E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.4571166666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="31856512"/>
+        <c:axId val="31858048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="31856512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="31858048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31858048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="31856512"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -2424,10 +2658,10 @@
                   <c:v>28.12123561666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>30.450435933333331</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>39.8790537</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -2800,10 +3034,10 @@
                   <c:v>28.643410250000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.45557838333333334</c:v>
+                  <c:v>30.906014316666663</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.62161330000000004</c:v>
+                  <c:v>40.500667</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.53454544999999998</c:v>
@@ -2855,6 +3089,2502 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="30966528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Length 1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$26:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.933333333333333E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8333333333333336E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.966666666666666E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.783333333333333E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2500000000000006E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0483333333333333E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1666666666666664E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4833333333333337E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0666666666666671E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5716666666666668E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5216666666666664E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0333333333333335E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Length 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$27:$U$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.5900000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3100000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6016666666666669E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5916666666666666E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6183333333333331E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1333333333333336E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1616666666666667E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3999999999999992E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0333333333333332E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5483333333333335E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2800000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Length 4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$29:$U$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.4663233333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.402835E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6007000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6455833333333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0240766666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0336500000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02284E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0540833333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8902949999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2955833333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3811166666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1126000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="75429376"/>
+        <c:axId val="75430912"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$28:$U$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.2080000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6351666666666663E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8050000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9203333333333328E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5615000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2636666666666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1016666666666665E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6356666666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0611666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1571666666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5561666666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2948333333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="75491584"/>
+        <c:axId val="75490048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75429376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75430912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75430912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75429376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75490048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75491584"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75491584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75490048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Length 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$27:$U$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.5900000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3100000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6016666666666669E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5916666666666666E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6183333333333331E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1333333333333336E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1616666666666667E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3999999999999992E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0333333333333332E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5483333333333335E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2800000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92280704"/>
+        <c:axId val="92331392"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Length 1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$26:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.933333333333333E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8333333333333336E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.966666666666666E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.783333333333333E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2500000000000006E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0483333333333333E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1666666666666664E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4833333333333337E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0666666666666671E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5716666666666668E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5216666666666664E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0333333333333335E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92822144"/>
+        <c:axId val="92820608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92280704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92331392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92331392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92280704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92820608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92822144"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92822144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92820608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Length 1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$26:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.933333333333333E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8333333333333336E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.966666666666666E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.783333333333333E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2500000000000006E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0483333333333333E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1666666666666664E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4833333333333337E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0666666666666671E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5716666666666668E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5216666666666664E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0333333333333335E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$28:$U$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.2080000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6351666666666663E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8050000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9203333333333328E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5615000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2636666666666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1016666666666665E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6356666666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0611666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1571666666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5561666666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2948333333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="93951872"/>
+        <c:axId val="94774400"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Length 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$27:$U$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.5900000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3100000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6016666666666669E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5916666666666666E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6183333333333331E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1333333333333336E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1616666666666667E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3999999999999992E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0333333333333332E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5483333333333335E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2800000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="94913280"/>
+        <c:axId val="94776320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="93951872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94774400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94774400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93951872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94776320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94913280"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94913280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94776320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Length 1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$26:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.933333333333333E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8333333333333336E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.966666666666666E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.783333333333333E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2500000000000006E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0483333333333333E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1666666666666664E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4833333333333337E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0666666666666671E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5716666666666668E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5216666666666664E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0333333333333335E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Length 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$27:$U$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.5900000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3100000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6016666666666669E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5916666666666666E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6183333333333331E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1333333333333336E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1616666666666667E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3999999999999992E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0333333333333332E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5483333333333335E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2800000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$28:$U$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.2080000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6351666666666663E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8050000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9203333333333328E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5615000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2636666666666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1016666666666665E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6356666666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0611666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1571666666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5561666666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2948333333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Length 4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$29:$U$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.4663233333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.402835E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6007000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6455833333333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0240766666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0336500000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02284E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0540833333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8902949999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2955833333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3811166666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1126000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Length 5</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stat Trial new'!$B$30:$U$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.32229983333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="31785728"/>
+        <c:axId val="31787264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="31785728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="31787264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31787264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="31785728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3020,6 +5750,171 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3328,8 +6223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,6 +6599,12 @@
       <c r="Q9" s="2">
         <v>274137</v>
       </c>
+      <c r="R9" s="2">
+        <v>26156</v>
+      </c>
+      <c r="S9" s="2">
+        <v>743222</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -4068,6 +6969,12 @@
       <c r="Q19" s="2">
         <v>1687</v>
       </c>
+      <c r="R19" s="2">
+        <v>1827</v>
+      </c>
+      <c r="S19" s="2">
+        <v>2392</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -4510,11 +7417,11 @@
       </c>
       <c r="R29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30.450435933333331</v>
       </c>
       <c r="S29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>39.8790537</v>
       </c>
       <c r="T29" s="2">
         <f t="shared" si="3"/>
@@ -4847,11 +7754,11 @@
       </c>
       <c r="R33" s="4">
         <f t="shared" si="7"/>
-        <v>0.45557838333333334</v>
+        <v>30.906014316666663</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="7"/>
-        <v>0.62161330000000004</v>
+        <v>40.500667</v>
       </c>
       <c r="T33" s="4">
         <f t="shared" si="7"/>
@@ -5279,11 +8186,11 @@
       </c>
       <c r="R39" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.50750726555555548</v>
       </c>
       <c r="S39" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.66465089499999996</v>
       </c>
       <c r="T39" s="2">
         <f t="shared" si="11"/>
@@ -7437,6 +10344,2112 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="4" customWidth="1"/>
+    <col min="3" max="21" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4">
+        <v>12</v>
+      </c>
+      <c r="N5" s="4">
+        <v>13</v>
+      </c>
+      <c r="O5" s="4">
+        <v>14</v>
+      </c>
+      <c r="P5" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>16</v>
+      </c>
+      <c r="R5" s="4">
+        <v>17</v>
+      </c>
+      <c r="S5" s="4">
+        <v>18</v>
+      </c>
+      <c r="T5" s="4">
+        <v>19</v>
+      </c>
+      <c r="U5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>356</v>
+      </c>
+      <c r="C6" s="4">
+        <v>230</v>
+      </c>
+      <c r="D6" s="4">
+        <v>298</v>
+      </c>
+      <c r="E6" s="4">
+        <v>287</v>
+      </c>
+      <c r="F6" s="4">
+        <v>315</v>
+      </c>
+      <c r="G6" s="4">
+        <v>629</v>
+      </c>
+      <c r="H6" s="4">
+        <v>370</v>
+      </c>
+      <c r="I6" s="4">
+        <v>389</v>
+      </c>
+      <c r="J6" s="4">
+        <v>424</v>
+      </c>
+      <c r="K6" s="4">
+        <v>943</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2113</v>
+      </c>
+      <c r="M6" s="4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4554</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1386</v>
+      </c>
+      <c r="D7" s="4">
+        <v>961</v>
+      </c>
+      <c r="E7" s="4">
+        <v>955</v>
+      </c>
+      <c r="F7" s="4">
+        <v>971</v>
+      </c>
+      <c r="G7" s="4">
+        <v>368</v>
+      </c>
+      <c r="H7" s="4">
+        <v>697</v>
+      </c>
+      <c r="I7" s="4">
+        <v>504</v>
+      </c>
+      <c r="J7" s="4">
+        <v>482</v>
+      </c>
+      <c r="K7" s="4">
+        <v>929</v>
+      </c>
+      <c r="L7" s="4">
+        <v>768</v>
+      </c>
+      <c r="M7" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>43248</v>
+      </c>
+      <c r="C8" s="4">
+        <v>15811</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4083</v>
+      </c>
+      <c r="E8" s="4">
+        <v>29522</v>
+      </c>
+      <c r="F8" s="4">
+        <v>15369</v>
+      </c>
+      <c r="G8" s="4">
+        <v>13582</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5461</v>
+      </c>
+      <c r="I8" s="4">
+        <v>21814</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12367</v>
+      </c>
+      <c r="K8" s="4">
+        <v>24943</v>
+      </c>
+      <c r="L8" s="4">
+        <v>15337</v>
+      </c>
+      <c r="M8" s="4">
+        <v>19769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>479794</v>
+      </c>
+      <c r="C9" s="4">
+        <v>841701</v>
+      </c>
+      <c r="D9" s="4">
+        <v>336042</v>
+      </c>
+      <c r="E9" s="4">
+        <v>158735</v>
+      </c>
+      <c r="F9" s="4">
+        <v>614446</v>
+      </c>
+      <c r="G9" s="4">
+        <v>542019</v>
+      </c>
+      <c r="H9" s="4">
+        <v>613704</v>
+      </c>
+      <c r="I9" s="4">
+        <v>363245</v>
+      </c>
+      <c r="J9" s="4">
+        <v>134177</v>
+      </c>
+      <c r="K9" s="4">
+        <v>777350</v>
+      </c>
+      <c r="L9" s="4">
+        <v>828670</v>
+      </c>
+      <c r="M9" s="4">
+        <v>546756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>337990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8</v>
+      </c>
+      <c r="J15" s="4">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>16</v>
+      </c>
+      <c r="R15" s="4">
+        <v>17</v>
+      </c>
+      <c r="S15" s="4">
+        <v>18</v>
+      </c>
+      <c r="T15" s="4">
+        <v>19</v>
+      </c>
+      <c r="U15" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4">
+        <v>7</v>
+      </c>
+      <c r="I25" s="4">
+        <v>8</v>
+      </c>
+      <c r="J25" s="4">
+        <v>9</v>
+      </c>
+      <c r="K25" s="4">
+        <v>10</v>
+      </c>
+      <c r="L25" s="4">
+        <v>11</v>
+      </c>
+      <c r="M25" s="4">
+        <v>12</v>
+      </c>
+      <c r="N25" s="4">
+        <v>13</v>
+      </c>
+      <c r="O25" s="4">
+        <v>14</v>
+      </c>
+      <c r="P25" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>16</v>
+      </c>
+      <c r="R25" s="4">
+        <v>17</v>
+      </c>
+      <c r="S25" s="4">
+        <v>18</v>
+      </c>
+      <c r="T25" s="4">
+        <v>19</v>
+      </c>
+      <c r="U25" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <f>((B16*1000000+B6)/1000000)/60</f>
+        <v>5.933333333333333E-6</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:U26" si="0">((C16*1000000+C6)/1000000)/60</f>
+        <v>3.8333333333333336E-6</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>4.966666666666666E-6</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>4.783333333333333E-6</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2500000000000006E-6</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0483333333333333E-5</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1666666666666664E-6</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4833333333333337E-6</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0666666666666671E-6</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5716666666666668E-5</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5216666666666664E-5</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0333333333333335E-6</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" ref="B27:U32" si="1">((B17*1000000+B7)/1000000)/60</f>
+        <v>7.5900000000000002E-5</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3100000000000002E-5</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6016666666666669E-5</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5916666666666666E-5</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6183333333333331E-5</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>6.1333333333333336E-6</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1616666666666667E-5</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999992E-6</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0333333333333332E-6</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5483333333333335E-5</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2800000000000001E-5</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="1"/>
+        <v>7.2080000000000006E-4</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6351666666666663E-4</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8050000000000001E-5</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9203333333333328E-4</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5615000000000002E-4</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2636666666666668E-4</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>9.1016666666666665E-5</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6356666666666665E-4</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0611666666666667E-4</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="1"/>
+        <v>4.1571666666666664E-4</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5561666666666665E-4</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2948333333333331E-4</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4663233333333333E-2</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="1"/>
+        <v>1.402835E-2</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="1"/>
+        <v>5.6007000000000001E-3</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6455833333333331E-3</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0240766666666668E-2</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>9.0336500000000007E-3</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="1"/>
+        <v>1.02284E-2</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="1"/>
+        <v>6.0540833333333332E-3</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8902949999999998E-2</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2955833333333333E-2</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3811166666666668E-2</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="1"/>
+        <v>9.1126000000000002E-3</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32229983333333334</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>6</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <f>SUM(B26:B30)</f>
+        <v>0.34776570000000001</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" ref="C33:U33" si="2">SUM(C26:C30)</f>
+        <v>1.43188E-2</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="2"/>
+        <v>5.6897333333333338E-3</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1583166666666663E-3</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0518350000000001E-2</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="2"/>
+        <v>9.2766333333333343E-3</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.03372E-2</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="2"/>
+        <v>6.432533333333333E-3</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9124166666666664E-2</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.340275E-2</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.41148E-2</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="2"/>
+        <v>9.4571166666666661E-3</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
+      <c r="G35" s="4">
+        <v>6</v>
+      </c>
+      <c r="H35" s="4">
+        <v>7</v>
+      </c>
+      <c r="I35" s="4">
+        <v>8</v>
+      </c>
+      <c r="J35" s="4">
+        <v>9</v>
+      </c>
+      <c r="K35" s="4">
+        <v>10</v>
+      </c>
+      <c r="L35" s="4">
+        <v>11</v>
+      </c>
+      <c r="M35" s="4">
+        <v>12</v>
+      </c>
+      <c r="N35" s="4">
+        <v>13</v>
+      </c>
+      <c r="O35" s="4">
+        <v>14</v>
+      </c>
+      <c r="P35" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>16</v>
+      </c>
+      <c r="R35" s="4">
+        <v>17</v>
+      </c>
+      <c r="S35" s="4">
+        <v>18</v>
+      </c>
+      <c r="T35" s="4">
+        <v>19</v>
+      </c>
+      <c r="U35" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B26/60</f>
+        <v>9.8888888888888879E-8</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" ref="C36:U36" si="3">C26/60</f>
+        <v>6.3888888888888896E-8</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="3"/>
+        <v>8.277777777777776E-8</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="3"/>
+        <v>7.9722222222222219E-8</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="3"/>
+        <v>8.7500000000000009E-8</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7472222222222222E-7</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0277777777777777E-7</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0805555555555555E-7</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1777777777777778E-7</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="3"/>
+        <v>2.6194444444444449E-7</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="3"/>
+        <v>5.8694444444444445E-7</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1722222222222223E-7</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" ref="B37:U42" si="4">B27/60</f>
+        <v>1.265E-6</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="4"/>
+        <v>3.8500000000000002E-7</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6694444444444449E-7</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6527777777777777E-7</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6972222222222219E-7</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0222222222222223E-7</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9361111111111111E-7</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3999999999999998E-7</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3388888888888887E-7</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5805555555555556E-7</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1333333333333336E-7</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333334E-7</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2013333333333334E-5</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3919444444444442E-6</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1341666666666667E-6</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="4"/>
+        <v>8.2005555555555551E-6</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2691666666666672E-6</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="4"/>
+        <v>3.7727777777777781E-6</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5169444444444444E-6</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="4"/>
+        <v>6.0594444444444439E-6</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="4"/>
+        <v>3.435277777777778E-6</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="4"/>
+        <v>6.9286111111111106E-6</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2602777777777777E-6</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="4"/>
+        <v>5.4913888888888882E-6</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1105388888888886E-4</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3380583333333334E-4</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="4"/>
+        <v>9.3345000000000008E-5</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="4"/>
+        <v>4.4093055555555551E-5</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7067944444444446E-4</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5056083333333335E-4</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7047333333333333E-4</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0090138888888888E-4</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1504916666666666E-4</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1593055555555555E-4</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3018611111111112E-4</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5187666666666668E-4</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="4"/>
+        <v>5.3716638888888892E-3</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>6</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="B4:U4"/>
+    <mergeCell ref="B14:U14"/>
+    <mergeCell ref="B24:U24"/>
+    <mergeCell ref="B34:U34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
